--- a/outputs/2_dists_by_taxcode_proc_will.xlsx
+++ b/outputs/2_dists_by_taxcode_proc_will.xlsx
@@ -544,7 +544,7 @@
     <t xml:space="preserve">1201</t>
   </si>
   <si>
-    <t xml:space="preserve">DES PLAINES VALLEY LBRY DIST</t>
+    <t xml:space="preserve">WHITE OAK LBRY DIST</t>
   </si>
   <si>
     <t xml:space="preserve">ROMEO MOSQ ABT DIST</t>
@@ -868,7 +868,7 @@
     <t xml:space="preserve">WILMINGTON LBRY DIST</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTI TWP DIST 1-06</t>
+    <t xml:space="preserve">MULTI TWP DIST 1-18</t>
   </si>
   <si>
     <t xml:space="preserve">VIL SYMERTON RD &amp; BR</t>
@@ -1156,7 +1156,7 @@
     <t xml:space="preserve">1810</t>
   </si>
   <si>
-    <t xml:space="preserve">MANHATTAN LBRY DIST</t>
+    <t xml:space="preserve">MANHATTAN-ELWOOD PUB LBRY DIST</t>
   </si>
   <si>
     <t xml:space="preserve">MANHATTAN TWP PKD</t>
@@ -2890,7 +2890,7 @@
     <t xml:space="preserve">H 111; H 204; H 205; H 206; H 210</t>
   </si>
   <si>
-    <t xml:space="preserve">BEECHER PUB LBRY DIST; CRETE LBRY DIST; DES PLAINES VALLEY LBRY DIST; FOSSIL RIDGE LBRY DIST; FOUNTAINDALE LBRY DIST; FRANKFORT LBRY DIST; HOMER LBRY DIST; MANHATTAN LBRY DIST; MANTENO LBRY DIST; MOKENA COMM LBRY DIST; NANCY L MCCONATHY LBRY DIST; NEW LENOX LBRY DIST; OSWEGO LBRY DIST; PEOTONE LBRY DIST; PLAINFIELD LBRY DIST; PLFD LIBRARY SPECIAL; SHOREWOOD-TROY LBRY DIST; STEGER-SO CHICAGO HTS LBRY DIST; THREE RIVERS LBRY DIST; UNIVERSITY PARK LBRY DIST; WILMINGTON LBRY DIST</t>
+    <t xml:space="preserve">BEECHER PUB LBRY DIST; CRETE LBRY DIST; FOSSIL RIDGE LBRY DIST; FOUNTAINDALE LBRY DIST; FRANKFORT LBRY DIST; HOMER LBRY DIST; MANHATTAN-ELWOOD PUB LBRY DIST; MANTENO LBRY DIST; MOKENA COMM LBRY DIST; NANCY L MCCONATHY LBRY DIST; NEW LENOX LBRY DIST; OSWEGO LBRY DIST; PEOTONE LBRY DIST; PLAINFIELD LBRY DIST; PLFD LIBRARY SPECIAL; SHOREWOOD-TROY LBRY DIST; STEGER-SO CHICAGO HTS LBRY DIST; THREE RIVERS LBRY DIST; UNIVERSITY PARK LBRY DIST; WHITE OAK LBRY DIST; WILMINGTON LBRY DIST</t>
   </si>
   <si>
     <t xml:space="preserve">REED MOSQ ABT DIST; ROMEO MOSQ ABT DIST</t>
